--- a/data/trans_bre/LAWTONB_2R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R3-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.3689857952867112</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4776429006208706</v>
+        <v>0.4776429006208703</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.097544853221953</v>
+        <v>0.8148909527127021</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.22884951096762</v>
+        <v>-1.447880678081488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.407093021768383</v>
+        <v>1.717982147588849</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.959643324582372</v>
+        <v>7.077925025119081</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05602105814078685</v>
+        <v>0.03936035204065481</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.05010302980914593</v>
+        <v>-0.05324214211721463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06251886429308298</v>
+        <v>0.06323789352279409</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.235160011261243</v>
+        <v>0.2396506924427127</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.765341571807054</v>
+        <v>10.27488734219873</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.96194073000158</v>
+        <v>10.13129041784999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.42104424142707</v>
+        <v>13.20437650396618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.36471014298182</v>
+        <v>17.08420222481838</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8352882196228938</v>
+        <v>0.8537296281768535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5490330178771099</v>
+        <v>0.4892372671539973</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7247752840752171</v>
+        <v>0.7670383842290569</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.771090901888245</v>
+        <v>0.7501928053365686</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.46445966479285</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.351552651124265</v>
+        <v>4.351552651124269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1407696139146485</v>
@@ -749,7 +749,7 @@
         <v>1.002560071273235</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4269389553753447</v>
+        <v>0.426938955375345</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.958949658138863</v>
+        <v>-9.840491184832272</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.93194997344281</v>
+        <v>-13.36276494253512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9965322792247705</v>
+        <v>1.300185395172432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2648645455494975</v>
+        <v>0.2189630414704951</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.605370203774122</v>
+        <v>-0.6732389316587145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6366416556240478</v>
+        <v>-0.7236965762239163</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02487962863336138</v>
+        <v>0.06349758084370923</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.006168472122641102</v>
+        <v>0.01483626140935699</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.39690456935647</v>
+        <v>12.85476665320864</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.075856269968074</v>
+        <v>6.487130601762839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.25263796411939</v>
+        <v>15.13784232180884</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.345403467634691</v>
+        <v>8.536324378918925</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.79066721624726</v>
+        <v>1.937202284883236</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9044964791866629</v>
+        <v>0.7281462628780364</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.734858718764748</v>
+        <v>2.943953305004979</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9349168088232354</v>
+        <v>1.031504919935762</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.07876504936865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.279708932613483</v>
+        <v>3.279708932613481</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9334896307390415</v>
@@ -849,7 +849,7 @@
         <v>0.111459826139244</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5069569402895472</v>
+        <v>0.506956940289547</v>
       </c>
     </row>
     <row r="11">
@@ -860,22 +860,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.664768403988247</v>
+        <v>-7.329728197146292</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.24265763047364</v>
+        <v>-11.20460395219898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.70375531283801</v>
+        <v>-13.85455718816517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.634183178875576</v>
+        <v>-2.444378782223264</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.4013111770430197</v>
+        <v>-0.3442735564192622</v>
       </c>
     </row>
     <row r="12">
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.15026850552722</v>
+        <v>23.39255289890826</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>32.33604296858805</v>
+        <v>27.67787067343932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.14754968785367</v>
+        <v>15.74393576761787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.527133927766185</v>
+        <v>9.869295048379183</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>2.479124328441159</v>
+        <v>2.8006695790951</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>8.473041885243587</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12.42391408400858</v>
+        <v>12.42391408400859</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4449868824197439</v>
@@ -937,7 +937,7 @@
         <v>0.5596923316520881</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.777233309306962</v>
+        <v>0.7772333093069627</v>
       </c>
     </row>
     <row r="14">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.438523573247353</v>
+        <v>1.270482358441453</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4610511564709012</v>
+        <v>-0.05279505047411141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.308208465311251</v>
+        <v>4.249108739135094</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.140911977275348</v>
+        <v>9.144310195419349</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09513698175247624</v>
+        <v>0.06457120237403928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01713007697406023</v>
+        <v>-0.00896968483814344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2529566717273979</v>
+        <v>0.2395400417710965</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5197793105136214</v>
+        <v>0.5133182786984586</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.820528045449372</v>
+        <v>9.954366500011009</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.79102233358868</v>
+        <v>9.809578016396838</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.70260854542289</v>
+        <v>12.84449401980605</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.53460002220456</v>
+        <v>15.58628786548556</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.911057014602488</v>
+        <v>0.9146275069533906</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.538838042225034</v>
+        <v>0.5426284448807385</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9677126361876939</v>
+        <v>0.982690387286993</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.07821114450082</v>
+        <v>1.088343221970851</v>
       </c>
     </row>
     <row r="16">
